--- a/Dutch translation files/stimuli.xlsx
+++ b/Dutch translation files/stimuli.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,46 @@
     <t>stimulus</t>
   </si>
   <si>
-    <t>trialtype</t>
-  </si>
-  <si>
-    <t>trueLabel</t>
-  </si>
-  <si>
-    <t>falseLabel</t>
+    <t>false_label</t>
+  </si>
+  <si>
+    <t>trial_type</t>
+  </si>
+  <si>
+    <t>true_label</t>
+  </si>
+  <si>
+    <t>Goed</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>WAAR</t>
+  </si>
+  <si>
+    <t>NIET WAAR</t>
+  </si>
+  <si>
+    <t>Juist</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Mis</t>
+  </si>
+  <si>
+    <t>Onjuist</t>
+  </si>
+  <si>
+    <t>Verkeerd</t>
+  </si>
+  <si>
+    <t>Fout</t>
   </si>
   <si>
     <t>Ik ben waardevol</t>
@@ -97,39 +130,6 @@
   </si>
   <si>
     <t>Ik ben niet mislukt</t>
-  </si>
-  <si>
-    <t>Goed</t>
-  </si>
-  <si>
-    <t>Juist</t>
-  </si>
-  <si>
-    <t>Exact</t>
-  </si>
-  <si>
-    <t>In</t>
-  </si>
-  <si>
-    <t>Mis</t>
-  </si>
-  <si>
-    <t>Onjuist</t>
-  </si>
-  <si>
-    <t>Verkeerd</t>
-  </si>
-  <si>
-    <t>Fout</t>
-  </si>
-  <si>
-    <t>WAAR</t>
-  </si>
-  <si>
-    <t>NIET WAAR</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -173,18 +173,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -194,14 +188,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
+        <fgColor rgb="FF1890A8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFFF6666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6666FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0080FF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -214,7 +226,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="201">
+  <cellStyleXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -416,28 +428,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="201">
+  <cellStyles count="207">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -538,6 +574,9 @@
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -638,6 +677,9 @@
     <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -970,13 +1012,13 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -984,442 +1026,439 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="11">
+        <v>2</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="15">
+        <v>3</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="15">
+        <v>3</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="15">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="15">
+        <v>3</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="19">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="19">
+        <v>4</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="19">
+        <v>4</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="19">
+        <v>4</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="22">
         <v>5</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C22" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="22">
+        <v>5</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="22">
+        <v>5</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="22">
+        <v>5</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="22">
+        <v>5</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="7">
+        <v>6</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="7">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="7">
+        <v>6</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="7">
+        <v>6</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="7">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="7">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="7">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="11" t="s">
+      <c r="B31" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="2">
-        <v>5</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="2">
-        <v>5</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="2">
-        <v>5</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="2">
-        <v>5</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="2">
-        <v>5</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="2">
-        <v>6</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="2">
-        <v>6</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="2">
-        <v>6</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="2">
-        <v>6</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="2">
-        <v>6</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>35</v>
+      <c r="C31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <ignoredErrors>
-    <ignoredError sqref="B2" numberStoredAsText="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Dutch translation files/stimuli.xlsx
+++ b/Dutch translation files/stimuli.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="8760" yWindow="0" windowWidth="17000" windowHeight="7700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Correct</t>
   </si>
@@ -27,28 +27,25 @@
     <t>Incorrect</t>
   </si>
   <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>false_label</t>
-  </si>
-  <si>
-    <t>trial_type</t>
-  </si>
-  <si>
-    <t>true_label</t>
+    <t>trial_type_1_exemplars</t>
+  </si>
+  <si>
+    <t>trial_type_2_exemplars</t>
+  </si>
+  <si>
+    <t>trial_type_3_exemplars</t>
+  </si>
+  <si>
+    <t>trial_type_4_exemplars</t>
+  </si>
+  <si>
+    <t>trial_type_5_exemplars</t>
+  </si>
+  <si>
+    <t>trial_type_6_exemplars</t>
   </si>
   <si>
     <t>Goed</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>WAAR</t>
-  </si>
-  <si>
-    <t>NIET WAAR</t>
   </si>
   <si>
     <t>Juist</t>
@@ -136,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,59 +159,16 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1890A8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6666"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6666FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8000FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0080FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -226,7 +180,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="207">
+  <cellStyleXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -434,46 +388,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="207">
+  <cellStyles count="227">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -577,6 +520,16 @@
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -680,6 +633,16 @@
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1009,451 +972,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="1" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2"/>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="11">
-        <v>2</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="11">
-        <v>2</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="11">
-        <v>2</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="13" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="11">
-        <v>2</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="15">
-        <v>3</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="15">
-        <v>3</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="15">
-        <v>3</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="17" t="s">
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="15">
-        <v>3</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="15">
-        <v>3</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="19">
-        <v>4</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="19">
-        <v>4</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="19">
-        <v>4</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="18" t="s">
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="19">
-        <v>4</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="19">
-        <v>4</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="22">
-        <v>5</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="22">
-        <v>5</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="22">
-        <v>5</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="21" t="s">
+      <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="22">
-        <v>5</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="22">
-        <v>5</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="7">
-        <v>6</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="7">
-        <v>6</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="7">
-        <v>6</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="9" t="s">
+      <c r="F6" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B30" s="7">
-        <v>6</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="7">
-        <v>6</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
